--- a/TDECU_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/TDECU_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\OLB\TDECU_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A9066F-A29C-4312-84C3-D04D55E49F2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB90D4E-91DD-43F2-A8A8-4F952E2536B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5850" xr2:uid="{13B97D08-7665-4822-9452-B2C4D90DCF5C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5850" activeTab="1" xr2:uid="{13B97D08-7665-4822-9452-B2C4D90DCF5C}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Kony@432</t>
   </si>
   <si>
-    <t>VerifyOnetimeMyTdecuAccountTransfer</t>
-  </si>
-  <si>
     <t>FromAccount</t>
   </si>
   <si>
@@ -92,13 +89,25 @@
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>TDB2019_VerifyOnetimeMyTdecuAccountTransfer</t>
+  </si>
+  <si>
+    <t>TDB2020_VerifyDailyMyTdecuAccountTransfer</t>
+  </si>
+  <si>
+    <t>Daily transfer</t>
+  </si>
+  <si>
+    <t>1.24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +119,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,10 +153,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -455,54 +473,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D6D720-71D1-4BF4-ABD0-0ACDDB5F06C4}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -510,56 +553,79 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C89C39F9-52DF-4D52-A1D8-71D23FA4D652}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{0FE5BFE6-694E-4FF9-B73A-AD7A404537B7}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{2FA58ABD-AACF-4C1F-B59A-4E27B8BA8311}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{52185998-2871-4997-92E2-E3F784F81A90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C409BBA9-585F-4117-BE3A-BB3E67DEFA9E}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
